--- a/expenses.xlsx
+++ b/expenses.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="225">
   <si>
     <t>category</t>
   </si>
@@ -28,52 +28,667 @@
     <t>description</t>
   </si>
   <si>
+    <t>food</t>
+  </si>
+  <si>
+    <t>2024-01-15</t>
+  </si>
+  <si>
+    <t>Lunch at McDonald's</t>
+  </si>
+  <si>
+    <t>2024-01-12</t>
+  </si>
+  <si>
+    <t>Coffee and pastry</t>
+  </si>
+  <si>
+    <t>2024-01-10</t>
+  </si>
+  <si>
+    <t>Weekly groceries</t>
+  </si>
+  <si>
+    <t>2024-01-05</t>
+  </si>
+  <si>
+    <t>Dinner with friends</t>
+  </si>
+  <si>
+    <t>2024-01-03</t>
+  </si>
+  <si>
+    <t>Morning coffee</t>
+  </si>
+  <si>
+    <t>2023-12-30</t>
+  </si>
+  <si>
+    <t>Pizza delivery</t>
+  </si>
+  <si>
+    <t>2023-12-26</t>
+  </si>
+  <si>
+    <t>Restaurant dinner</t>
+  </si>
+  <si>
+    <t>2023-12-24</t>
+  </si>
+  <si>
+    <t>Snacks for road trip</t>
+  </si>
+  <si>
+    <t>2023-12-21</t>
+  </si>
+  <si>
+    <t>Quick lunch</t>
+  </si>
+  <si>
+    <t>2023-12-17</t>
+  </si>
+  <si>
+    <t>Brunch</t>
+  </si>
+  <si>
+    <t>2023-12-16</t>
+  </si>
+  <si>
+    <t>Supermarket run</t>
+  </si>
+  <si>
+    <t>2023-12-11</t>
+  </si>
+  <si>
+    <t>Food truck lunch</t>
+  </si>
+  <si>
+    <t>2023-12-08</t>
+  </si>
+  <si>
+    <t>Chinese takeout</t>
+  </si>
+  <si>
+    <t>2023-12-05</t>
+  </si>
+  <si>
+    <t>Breakfast sandwich</t>
+  </si>
+  <si>
+    <t>2023-12-01</t>
+  </si>
+  <si>
+    <t>Family dinner</t>
+  </si>
+  <si>
+    <t>2023-11-29</t>
+  </si>
+  <si>
+    <t>Cafe meeting</t>
+  </si>
+  <si>
+    <t>2023-11-24</t>
+  </si>
+  <si>
+    <t>Thanksgiving supplies</t>
+  </si>
+  <si>
+    <t>2023-11-22</t>
+  </si>
+  <si>
+    <t>Starbucks coffee</t>
+  </si>
+  <si>
+    <t>2023-11-19</t>
+  </si>
+  <si>
+    <t>Weekly shopping</t>
+  </si>
+  <si>
+    <t>2023-11-15</t>
+  </si>
+  <si>
+    <t>Lunch meeting</t>
+  </si>
+  <si>
+    <t>2023-11-12</t>
+  </si>
+  <si>
+    <t>Fast food</t>
+  </si>
+  <si>
+    <t>2023-11-08</t>
+  </si>
+  <si>
+    <t>Italian restaurant</t>
+  </si>
+  <si>
+    <t>2023-11-05</t>
+  </si>
+  <si>
+    <t>Donuts and coffee</t>
+  </si>
+  <si>
+    <t>2023-11-01</t>
+  </si>
+  <si>
+    <t>Sandwiches for picnic</t>
+  </si>
+  <si>
+    <t>2023-10-29</t>
+  </si>
+  <si>
+    <t>Grocery shopping</t>
+  </si>
+  <si>
+    <t>2023-10-26</t>
+  </si>
+  <si>
+    <t>Lunch buffet</t>
+  </si>
+  <si>
+    <t>2023-10-22</t>
+  </si>
+  <si>
+    <t>2023-10-18</t>
+  </si>
+  <si>
+    <t>Sushi dinner</t>
+  </si>
+  <si>
+    <t>2023-10-15</t>
+  </si>
+  <si>
+    <t>Pizza slice</t>
+  </si>
+  <si>
+    <t>2023-10-11</t>
+  </si>
+  <si>
+    <t>Organic groceries</t>
+  </si>
+  <si>
+    <t>2023-10-07</t>
+  </si>
+  <si>
+    <t>Bagel breakfast</t>
+  </si>
+  <si>
+    <t>2023-10-04</t>
+  </si>
+  <si>
+    <t>Mexican restaurant</t>
+  </si>
+  <si>
+    <t>transportation</t>
+  </si>
+  <si>
+    <t>Monthly bus pass</t>
+  </si>
+  <si>
+    <t>2024-01-09</t>
+  </si>
+  <si>
+    <t>Taxi ride</t>
+  </si>
+  <si>
+    <t>2024-01-04</t>
+  </si>
+  <si>
+    <t>Gas for car</t>
+  </si>
+  <si>
+    <t>2023-12-27</t>
+  </si>
+  <si>
+    <t>Car wash</t>
+  </si>
+  <si>
+    <t>2023-12-20</t>
+  </si>
+  <si>
+    <t>Oil change</t>
+  </si>
+  <si>
+    <t>2023-12-15</t>
+  </si>
+  <si>
+    <t>Subway fare</t>
+  </si>
+  <si>
+    <t>2023-12-09</t>
+  </si>
+  <si>
+    <t>Parking fee</t>
+  </si>
+  <si>
+    <t>2023-12-03</t>
+  </si>
+  <si>
+    <t>Car insurance</t>
+  </si>
+  <si>
+    <t>2023-11-27</t>
+  </si>
+  <si>
+    <t>Bus tickets</t>
+  </si>
+  <si>
+    <t>2023-11-21</t>
+  </si>
+  <si>
+    <t>Car maintenance</t>
+  </si>
+  <si>
+    <t>2023-11-14</t>
+  </si>
+  <si>
+    <t>Ride sharing</t>
+  </si>
+  <si>
+    <t>2023-11-07</t>
+  </si>
+  <si>
+    <t>Gas fill-up</t>
+  </si>
+  <si>
+    <t>2023-10-31</t>
+  </si>
+  <si>
+    <t>Train ticket</t>
+  </si>
+  <si>
+    <t>2023-10-25</t>
+  </si>
+  <si>
+    <t>Car registration</t>
+  </si>
+  <si>
+    <t>2023-10-19</t>
+  </si>
+  <si>
+    <t>Car wash and vacuum</t>
+  </si>
+  <si>
+    <t>2023-10-13</t>
+  </si>
+  <si>
+    <t>Bike repair</t>
+  </si>
+  <si>
+    <t>2023-10-06</t>
+  </si>
+  <si>
+    <t>Gas station</t>
+  </si>
+  <si>
+    <t>utilities</t>
+  </si>
+  <si>
+    <t>2024-01-14</t>
+  </si>
+  <si>
+    <t>Electricity bill</t>
+  </si>
+  <si>
+    <t>2024-01-07</t>
+  </si>
+  <si>
+    <t>Internet bill</t>
+  </si>
+  <si>
+    <t>2023-12-28</t>
+  </si>
+  <si>
+    <t>Water bill</t>
+  </si>
+  <si>
+    <t>2023-12-19</t>
+  </si>
+  <si>
+    <t>Heating bill</t>
+  </si>
+  <si>
+    <t>2023-12-10</t>
+  </si>
+  <si>
+    <t>Phone bill</t>
+  </si>
+  <si>
+    <t>2023-12-02</t>
+  </si>
+  <si>
+    <t>Gas bill</t>
+  </si>
+  <si>
+    <t>2023-11-25</t>
+  </si>
+  <si>
+    <t>Electric bill</t>
+  </si>
+  <si>
+    <t>2023-11-17</t>
+  </si>
+  <si>
+    <t>2023-11-10</t>
+  </si>
+  <si>
+    <t>Water and sewage</t>
+  </si>
+  <si>
+    <t>2023-11-02</t>
+  </si>
+  <si>
+    <t>Electricity</t>
+  </si>
+  <si>
+    <t>2023-10-24</t>
+  </si>
+  <si>
+    <t>Heating oil</t>
+  </si>
+  <si>
+    <t>2023-10-17</t>
+  </si>
+  <si>
+    <t>2023-10-10</t>
+  </si>
+  <si>
+    <t>2023-10-03</t>
+  </si>
+  <si>
+    <t>Internet service</t>
+  </si>
+  <si>
+    <t>entertainment</t>
+  </si>
+  <si>
+    <t>2024-01-13</t>
+  </si>
+  <si>
+    <t>Movie tickets</t>
+  </si>
+  <si>
+    <t>2024-01-08</t>
+  </si>
+  <si>
+    <t>Netflix subscription</t>
+  </si>
+  <si>
+    <t>2023-12-29</t>
+  </si>
+  <si>
+    <t>Bowling night</t>
+  </si>
+  <si>
+    <t>2023-12-22</t>
+  </si>
+  <si>
+    <t>Concert tickets</t>
+  </si>
+  <si>
+    <t>2023-12-14</t>
+  </si>
+  <si>
+    <t>Spotify premium</t>
+  </si>
+  <si>
+    <t>2023-12-07</t>
+  </si>
+  <si>
+    <t>Museum tickets</t>
+  </si>
+  <si>
+    <t>2023-11-28</t>
+  </si>
+  <si>
+    <t>Video game</t>
+  </si>
+  <si>
+    <t>2023-11-20</t>
+  </si>
+  <si>
+    <t>Book purchase</t>
+  </si>
+  <si>
+    <t>2023-11-13</t>
+  </si>
+  <si>
+    <t>Magazine subscription</t>
+  </si>
+  <si>
+    <t>2023-11-06</t>
+  </si>
+  <si>
+    <t>Theater tickets</t>
+  </si>
+  <si>
+    <t>2023-10-30</t>
+  </si>
+  <si>
+    <t>Music album</t>
+  </si>
+  <si>
+    <t>2023-10-23</t>
+  </si>
+  <si>
+    <t>Board game</t>
+  </si>
+  <si>
+    <t>2023-10-16</t>
+  </si>
+  <si>
+    <t>Sports event</t>
+  </si>
+  <si>
+    <t>2023-10-09</t>
+  </si>
+  <si>
+    <t>Arcade games</t>
+  </si>
+  <si>
+    <t>2023-10-02</t>
+  </si>
+  <si>
+    <t>Comedy show</t>
+  </si>
+  <si>
+    <t>shopping</t>
+  </si>
+  <si>
+    <t>New jeans</t>
+  </si>
+  <si>
+    <t>2024-01-06</t>
+  </si>
+  <si>
+    <t>Books</t>
+  </si>
+  <si>
+    <t>2024-01-01</t>
+  </si>
+  <si>
+    <t>New headphones</t>
+  </si>
+  <si>
+    <t>2023-12-25</t>
+  </si>
+  <si>
+    <t>Christmas gifts</t>
+  </si>
+  <si>
+    <t>2023-12-18</t>
+  </si>
+  <si>
+    <t>Phone case</t>
+  </si>
+  <si>
+    <t>2023-12-12</t>
+  </si>
+  <si>
+    <t>Winter jacket</t>
+  </si>
+  <si>
+    <t>2023-12-06</t>
+  </si>
+  <si>
+    <t>Office supplies</t>
+  </si>
+  <si>
+    <t>2023-11-30</t>
+  </si>
+  <si>
+    <t>New shoes</t>
+  </si>
+  <si>
+    <t>2023-11-23</t>
+  </si>
+  <si>
+    <t>Kitchen utensils</t>
+  </si>
+  <si>
+    <t>2023-11-16</t>
+  </si>
+  <si>
+    <t>Smartwatch</t>
+  </si>
+  <si>
+    <t>2023-11-09</t>
+  </si>
+  <si>
+    <t>Home decor</t>
+  </si>
+  <si>
+    <t>2023-11-03</t>
+  </si>
+  <si>
+    <t>Winter boots</t>
+  </si>
+  <si>
+    <t>2023-10-27</t>
+  </si>
+  <si>
+    <t>Gift for friend</t>
+  </si>
+  <si>
+    <t>2023-10-21</t>
+  </si>
+  <si>
+    <t>New backpack</t>
+  </si>
+  <si>
+    <t>2023-10-14</t>
+  </si>
+  <si>
+    <t>Cooking ingredients</t>
+  </si>
+  <si>
+    <t>2023-10-08</t>
+  </si>
+  <si>
+    <t>2023-10-01</t>
+  </si>
+  <si>
+    <t>Phone charger</t>
+  </si>
+  <si>
+    <t>healthcare</t>
+  </si>
+  <si>
+    <t>2024-01-11</t>
+  </si>
+  <si>
+    <t>Pharmacy</t>
+  </si>
+  <si>
+    <t>2024-01-02</t>
+  </si>
+  <si>
+    <t>Dentist appointment</t>
+  </si>
+  <si>
+    <t>2023-12-23</t>
+  </si>
+  <si>
+    <t>Vitamins</t>
+  </si>
+  <si>
+    <t>2023-12-13</t>
+  </si>
+  <si>
+    <t>Doctor visit</t>
+  </si>
+  <si>
+    <t>2023-12-04</t>
+  </si>
+  <si>
+    <t>Prescription</t>
+  </si>
+  <si>
+    <t>2023-11-26</t>
+  </si>
+  <si>
+    <t>Therapy session</t>
+  </si>
+  <si>
+    <t>2023-11-18</t>
+  </si>
+  <si>
+    <t>First aid kit</t>
+  </si>
+  <si>
+    <t>2023-11-11</t>
+  </si>
+  <si>
+    <t>Specialist visit</t>
+  </si>
+  <si>
+    <t>2023-11-04</t>
+  </si>
+  <si>
+    <t>Over-the-counter meds</t>
+  </si>
+  <si>
+    <t>2023-10-28</t>
+  </si>
+  <si>
+    <t>Dental cleaning</t>
+  </si>
+  <si>
+    <t>2023-10-20</t>
+  </si>
+  <si>
+    <t>Chiropractor</t>
+  </si>
+  <si>
+    <t>2023-10-12</t>
+  </si>
+  <si>
+    <t>Lab tests</t>
+  </si>
+  <si>
+    <t>2023-10-05</t>
+  </si>
+  <si>
+    <t>Vitamin supplements</t>
+  </si>
+  <si>
     <t>Food</t>
   </si>
   <si>
-    <t>2025-10-03</t>
-  </si>
-  <si>
-    <t>egg</t>
-  </si>
-  <si>
-    <t>2025-10-04</t>
-  </si>
-  <si>
-    <t>bread</t>
-  </si>
-  <si>
-    <t>Medical</t>
-  </si>
-  <si>
-    <t>2025-09-30</t>
-  </si>
-  <si>
-    <t>antibiotic</t>
-  </si>
-  <si>
-    <t>Utilities</t>
-  </si>
-  <si>
-    <t>2025-09-28</t>
-  </si>
-  <si>
-    <t>soap &amp; shampoo</t>
-  </si>
-  <si>
-    <t>Clothing</t>
-  </si>
-  <si>
-    <t>shirt and pants</t>
-  </si>
-  <si>
-    <t>Vehicle</t>
-  </si>
-  <si>
-    <t>2025-09-19</t>
-  </si>
-  <si>
-    <t>Burgman street mags and breaks</t>
+    <t>2025-10-13</t>
+  </si>
+  <si>
+    <t>Egg</t>
+  </si>
+  <si>
+    <t>Entertainment</t>
+  </si>
+  <si>
+    <t>2025-10-06</t>
+  </si>
+  <si>
+    <t>Movie</t>
   </si>
 </sst>
 </file>
@@ -420,7 +1035,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D112"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -451,7 +1066,7 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>20</v>
+        <v>12.5</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
@@ -465,7 +1080,7 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>20</v>
+        <v>8.75</v>
       </c>
       <c r="C3" t="s">
         <v>7</v>
@@ -476,58 +1091,1528 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>65.3</v>
+      </c>
+      <c r="C4" t="s">
         <v>9</v>
       </c>
-      <c r="B4">
-        <v>100</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>10</v>
-      </c>
-      <c r="D4" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>22.4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" t="s">
         <v>12</v>
-      </c>
-      <c r="B5">
-        <v>200</v>
-      </c>
-      <c r="C5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>300</v>
+        <v>5.25</v>
       </c>
       <c r="C6" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <v>18.75</v>
+      </c>
+      <c r="C7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8">
+        <v>32.15</v>
+      </c>
+      <c r="C8" t="s">
         <v>17</v>
       </c>
-      <c r="B7">
-        <v>600</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="D8" t="s">
         <v>18</v>
       </c>
-      <c r="D7" t="s">
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9">
+        <v>12</v>
+      </c>
+      <c r="C9" t="s">
         <v>19</v>
+      </c>
+      <c r="D9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10">
+        <v>7.5</v>
+      </c>
+      <c r="C10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11">
+        <v>15.25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12">
+        <v>42.8</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13">
+        <v>9.99</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14">
+        <v>28.45</v>
+      </c>
+      <c r="C14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15">
+        <v>6.5</v>
+      </c>
+      <c r="C15" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16">
+        <v>23.6</v>
+      </c>
+      <c r="C16" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17">
+        <v>11.25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18">
+        <v>19.75</v>
+      </c>
+      <c r="C18" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19">
+        <v>8.25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>39</v>
+      </c>
+      <c r="D19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20">
+        <v>67.8</v>
+      </c>
+      <c r="C20" t="s">
+        <v>41</v>
+      </c>
+      <c r="D20" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21">
+        <v>14.5</v>
+      </c>
+      <c r="C21" t="s">
+        <v>43</v>
+      </c>
+      <c r="D21" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22">
+        <v>9.99</v>
+      </c>
+      <c r="C22" t="s">
+        <v>45</v>
+      </c>
+      <c r="D22" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23">
+        <v>28.3</v>
+      </c>
+      <c r="C23" t="s">
+        <v>47</v>
+      </c>
+      <c r="D23" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>4</v>
+      </c>
+      <c r="B24">
+        <v>6.75</v>
+      </c>
+      <c r="C24" t="s">
+        <v>49</v>
+      </c>
+      <c r="D24" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>4</v>
+      </c>
+      <c r="B25">
+        <v>16.45</v>
+      </c>
+      <c r="C25" t="s">
+        <v>51</v>
+      </c>
+      <c r="D25" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
+        <v>4</v>
+      </c>
+      <c r="B26">
+        <v>42.15</v>
+      </c>
+      <c r="C26" t="s">
+        <v>53</v>
+      </c>
+      <c r="D26" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27">
+        <v>13.25</v>
+      </c>
+      <c r="C27" t="s">
+        <v>55</v>
+      </c>
+      <c r="D27" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" t="s">
+        <v>4</v>
+      </c>
+      <c r="B28">
+        <v>7.5</v>
+      </c>
+      <c r="C28" t="s">
+        <v>57</v>
+      </c>
+      <c r="D28" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" t="s">
+        <v>4</v>
+      </c>
+      <c r="B29">
+        <v>21.8</v>
+      </c>
+      <c r="C29" t="s">
+        <v>58</v>
+      </c>
+      <c r="D29" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" t="s">
+        <v>4</v>
+      </c>
+      <c r="B30">
+        <v>11.99</v>
+      </c>
+      <c r="C30" t="s">
+        <v>60</v>
+      </c>
+      <c r="D30" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" t="s">
+        <v>4</v>
+      </c>
+      <c r="B31">
+        <v>38.7</v>
+      </c>
+      <c r="C31" t="s">
+        <v>62</v>
+      </c>
+      <c r="D31" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" t="s">
+        <v>4</v>
+      </c>
+      <c r="B32">
+        <v>9.25</v>
+      </c>
+      <c r="C32" t="s">
+        <v>64</v>
+      </c>
+      <c r="D32" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" t="s">
+        <v>4</v>
+      </c>
+      <c r="B33">
+        <v>27.45</v>
+      </c>
+      <c r="C33" t="s">
+        <v>66</v>
+      </c>
+      <c r="D33" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" t="s">
+        <v>68</v>
+      </c>
+      <c r="B34">
+        <v>45</v>
+      </c>
+      <c r="C34" t="s">
+        <v>5</v>
+      </c>
+      <c r="D34" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" t="s">
+        <v>68</v>
+      </c>
+      <c r="B35">
+        <v>15.5</v>
+      </c>
+      <c r="C35" t="s">
+        <v>70</v>
+      </c>
+      <c r="D35" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" t="s">
+        <v>68</v>
+      </c>
+      <c r="B36">
+        <v>60</v>
+      </c>
+      <c r="C36" t="s">
+        <v>72</v>
+      </c>
+      <c r="D36" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" t="s">
+        <v>68</v>
+      </c>
+      <c r="B37">
+        <v>25</v>
+      </c>
+      <c r="C37" t="s">
+        <v>74</v>
+      </c>
+      <c r="D37" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" t="s">
+        <v>68</v>
+      </c>
+      <c r="B38">
+        <v>40</v>
+      </c>
+      <c r="C38" t="s">
+        <v>76</v>
+      </c>
+      <c r="D38" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" t="s">
+        <v>68</v>
+      </c>
+      <c r="B39">
+        <v>12</v>
+      </c>
+      <c r="C39" t="s">
+        <v>78</v>
+      </c>
+      <c r="D39" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" t="s">
+        <v>68</v>
+      </c>
+      <c r="B40">
+        <v>18.5</v>
+      </c>
+      <c r="C40" t="s">
+        <v>80</v>
+      </c>
+      <c r="D40" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" t="s">
+        <v>68</v>
+      </c>
+      <c r="B41">
+        <v>75</v>
+      </c>
+      <c r="C41" t="s">
+        <v>82</v>
+      </c>
+      <c r="D41" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" t="s">
+        <v>68</v>
+      </c>
+      <c r="B42">
+        <v>14</v>
+      </c>
+      <c r="C42" t="s">
+        <v>84</v>
+      </c>
+      <c r="D42" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" t="s">
+        <v>68</v>
+      </c>
+      <c r="B43">
+        <v>32</v>
+      </c>
+      <c r="C43" t="s">
+        <v>86</v>
+      </c>
+      <c r="D43" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" t="s">
+        <v>68</v>
+      </c>
+      <c r="B44">
+        <v>20</v>
+      </c>
+      <c r="C44" t="s">
+        <v>88</v>
+      </c>
+      <c r="D44" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" t="s">
+        <v>68</v>
+      </c>
+      <c r="B45">
+        <v>50</v>
+      </c>
+      <c r="C45" t="s">
+        <v>90</v>
+      </c>
+      <c r="D45" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" t="s">
+        <v>68</v>
+      </c>
+      <c r="B46">
+        <v>22</v>
+      </c>
+      <c r="C46" t="s">
+        <v>92</v>
+      </c>
+      <c r="D46" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" t="s">
+        <v>68</v>
+      </c>
+      <c r="B47">
+        <v>35</v>
+      </c>
+      <c r="C47" t="s">
+        <v>94</v>
+      </c>
+      <c r="D47" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" t="s">
+        <v>68</v>
+      </c>
+      <c r="B48">
+        <v>18.75</v>
+      </c>
+      <c r="C48" t="s">
+        <v>96</v>
+      </c>
+      <c r="D48" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" t="s">
+        <v>68</v>
+      </c>
+      <c r="B49">
+        <v>28</v>
+      </c>
+      <c r="C49" t="s">
+        <v>98</v>
+      </c>
+      <c r="D49" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" t="s">
+        <v>68</v>
+      </c>
+      <c r="B50">
+        <v>42</v>
+      </c>
+      <c r="C50" t="s">
+        <v>100</v>
+      </c>
+      <c r="D50" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" t="s">
+        <v>102</v>
+      </c>
+      <c r="B51">
+        <v>125.75</v>
+      </c>
+      <c r="C51" t="s">
+        <v>103</v>
+      </c>
+      <c r="D51" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" t="s">
+        <v>102</v>
+      </c>
+      <c r="B52">
+        <v>45.25</v>
+      </c>
+      <c r="C52" t="s">
+        <v>105</v>
+      </c>
+      <c r="D52" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" t="s">
+        <v>102</v>
+      </c>
+      <c r="B53">
+        <v>85.59999999999999</v>
+      </c>
+      <c r="C53" t="s">
+        <v>107</v>
+      </c>
+      <c r="D53" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" t="s">
+        <v>102</v>
+      </c>
+      <c r="B54">
+        <v>150.3</v>
+      </c>
+      <c r="C54" t="s">
+        <v>109</v>
+      </c>
+      <c r="D54" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" t="s">
+        <v>102</v>
+      </c>
+      <c r="B55">
+        <v>55.75</v>
+      </c>
+      <c r="C55" t="s">
+        <v>111</v>
+      </c>
+      <c r="D55" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" t="s">
+        <v>102</v>
+      </c>
+      <c r="B56">
+        <v>95.2</v>
+      </c>
+      <c r="C56" t="s">
+        <v>113</v>
+      </c>
+      <c r="D56" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" t="s">
+        <v>102</v>
+      </c>
+      <c r="B57">
+        <v>110.45</v>
+      </c>
+      <c r="C57" t="s">
+        <v>115</v>
+      </c>
+      <c r="D57" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" t="s">
+        <v>102</v>
+      </c>
+      <c r="B58">
+        <v>78.90000000000001</v>
+      </c>
+      <c r="C58" t="s">
+        <v>117</v>
+      </c>
+      <c r="D58" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" t="s">
+        <v>102</v>
+      </c>
+      <c r="B59">
+        <v>135.75</v>
+      </c>
+      <c r="C59" t="s">
+        <v>118</v>
+      </c>
+      <c r="D59" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" t="s">
+        <v>102</v>
+      </c>
+      <c r="B60">
+        <v>88.25</v>
+      </c>
+      <c r="C60" t="s">
+        <v>120</v>
+      </c>
+      <c r="D60" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" t="s">
+        <v>102</v>
+      </c>
+      <c r="B61">
+        <v>102.4</v>
+      </c>
+      <c r="C61" t="s">
+        <v>122</v>
+      </c>
+      <c r="D61" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" t="s">
+        <v>102</v>
+      </c>
+      <c r="B62">
+        <v>67.84999999999999</v>
+      </c>
+      <c r="C62" t="s">
+        <v>124</v>
+      </c>
+      <c r="D62" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" t="s">
+        <v>102</v>
+      </c>
+      <c r="B63">
+        <v>115.6</v>
+      </c>
+      <c r="C63" t="s">
+        <v>125</v>
+      </c>
+      <c r="D63" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" t="s">
+        <v>102</v>
+      </c>
+      <c r="B64">
+        <v>80</v>
+      </c>
+      <c r="C64" t="s">
+        <v>126</v>
+      </c>
+      <c r="D64" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" t="s">
+        <v>128</v>
+      </c>
+      <c r="B65">
+        <v>25</v>
+      </c>
+      <c r="C65" t="s">
+        <v>129</v>
+      </c>
+      <c r="D65" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" t="s">
+        <v>128</v>
+      </c>
+      <c r="B66">
+        <v>12.99</v>
+      </c>
+      <c r="C66" t="s">
+        <v>131</v>
+      </c>
+      <c r="D66" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" t="s">
+        <v>128</v>
+      </c>
+      <c r="B67">
+        <v>45</v>
+      </c>
+      <c r="C67" t="s">
+        <v>133</v>
+      </c>
+      <c r="D67" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" t="s">
+        <v>128</v>
+      </c>
+      <c r="B68">
+        <v>60</v>
+      </c>
+      <c r="C68" t="s">
+        <v>135</v>
+      </c>
+      <c r="D68" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" t="s">
+        <v>128</v>
+      </c>
+      <c r="B69">
+        <v>8.99</v>
+      </c>
+      <c r="C69" t="s">
+        <v>137</v>
+      </c>
+      <c r="D69" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" t="s">
+        <v>128</v>
+      </c>
+      <c r="B70">
+        <v>35</v>
+      </c>
+      <c r="C70" t="s">
+        <v>139</v>
+      </c>
+      <c r="D70" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" t="s">
+        <v>128</v>
+      </c>
+      <c r="B71">
+        <v>22.5</v>
+      </c>
+      <c r="C71" t="s">
+        <v>141</v>
+      </c>
+      <c r="D71" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" t="s">
+        <v>128</v>
+      </c>
+      <c r="B72">
+        <v>15</v>
+      </c>
+      <c r="C72" t="s">
+        <v>143</v>
+      </c>
+      <c r="D72" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" t="s">
+        <v>128</v>
+      </c>
+      <c r="B73">
+        <v>12</v>
+      </c>
+      <c r="C73" t="s">
+        <v>145</v>
+      </c>
+      <c r="D73" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" t="s">
+        <v>128</v>
+      </c>
+      <c r="B74">
+        <v>40</v>
+      </c>
+      <c r="C74" t="s">
+        <v>147</v>
+      </c>
+      <c r="D74" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" t="s">
+        <v>128</v>
+      </c>
+      <c r="B75">
+        <v>18.99</v>
+      </c>
+      <c r="C75" t="s">
+        <v>149</v>
+      </c>
+      <c r="D75" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" t="s">
+        <v>128</v>
+      </c>
+      <c r="B76">
+        <v>29.99</v>
+      </c>
+      <c r="C76" t="s">
+        <v>151</v>
+      </c>
+      <c r="D76" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" t="s">
+        <v>128</v>
+      </c>
+      <c r="B77">
+        <v>55</v>
+      </c>
+      <c r="C77" t="s">
+        <v>153</v>
+      </c>
+      <c r="D77" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" t="s">
+        <v>128</v>
+      </c>
+      <c r="B78">
+        <v>12.5</v>
+      </c>
+      <c r="C78" t="s">
+        <v>155</v>
+      </c>
+      <c r="D78" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" t="s">
+        <v>128</v>
+      </c>
+      <c r="B79">
+        <v>35</v>
+      </c>
+      <c r="C79" t="s">
+        <v>157</v>
+      </c>
+      <c r="D79" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" t="s">
+        <v>159</v>
+      </c>
+      <c r="B80">
+        <v>89.98999999999999</v>
+      </c>
+      <c r="C80" t="s">
+        <v>7</v>
+      </c>
+      <c r="D80" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" t="s">
+        <v>159</v>
+      </c>
+      <c r="B81">
+        <v>45</v>
+      </c>
+      <c r="C81" t="s">
+        <v>161</v>
+      </c>
+      <c r="D81" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" t="s">
+        <v>159</v>
+      </c>
+      <c r="B82">
+        <v>199.99</v>
+      </c>
+      <c r="C82" t="s">
+        <v>163</v>
+      </c>
+      <c r="D82" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" t="s">
+        <v>159</v>
+      </c>
+      <c r="B83">
+        <v>75.5</v>
+      </c>
+      <c r="C83" t="s">
+        <v>165</v>
+      </c>
+      <c r="D83" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" t="s">
+        <v>159</v>
+      </c>
+      <c r="B84">
+        <v>29.99</v>
+      </c>
+      <c r="C84" t="s">
+        <v>167</v>
+      </c>
+      <c r="D84" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" t="s">
+        <v>159</v>
+      </c>
+      <c r="B85">
+        <v>120</v>
+      </c>
+      <c r="C85" t="s">
+        <v>169</v>
+      </c>
+      <c r="D85" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" t="s">
+        <v>159</v>
+      </c>
+      <c r="B86">
+        <v>15.25</v>
+      </c>
+      <c r="C86" t="s">
+        <v>171</v>
+      </c>
+      <c r="D86" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" t="s">
+        <v>159</v>
+      </c>
+      <c r="B87">
+        <v>89.98999999999999</v>
+      </c>
+      <c r="C87" t="s">
+        <v>173</v>
+      </c>
+      <c r="D87" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" t="s">
+        <v>159</v>
+      </c>
+      <c r="B88">
+        <v>45.6</v>
+      </c>
+      <c r="C88" t="s">
+        <v>175</v>
+      </c>
+      <c r="D88" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" t="s">
+        <v>159</v>
+      </c>
+      <c r="B89">
+        <v>199</v>
+      </c>
+      <c r="C89" t="s">
+        <v>177</v>
+      </c>
+      <c r="D89" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" t="s">
+        <v>159</v>
+      </c>
+      <c r="B90">
+        <v>34.99</v>
+      </c>
+      <c r="C90" t="s">
+        <v>179</v>
+      </c>
+      <c r="D90" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91" t="s">
+        <v>159</v>
+      </c>
+      <c r="B91">
+        <v>79.98999999999999</v>
+      </c>
+      <c r="C91" t="s">
+        <v>181</v>
+      </c>
+      <c r="D91" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92" t="s">
+        <v>159</v>
+      </c>
+      <c r="B92">
+        <v>25.5</v>
+      </c>
+      <c r="C92" t="s">
+        <v>183</v>
+      </c>
+      <c r="D92" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93" t="s">
+        <v>159</v>
+      </c>
+      <c r="B93">
+        <v>149.99</v>
+      </c>
+      <c r="C93" t="s">
+        <v>185</v>
+      </c>
+      <c r="D93" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94" t="s">
+        <v>159</v>
+      </c>
+      <c r="B94">
+        <v>34.25</v>
+      </c>
+      <c r="C94" t="s">
+        <v>187</v>
+      </c>
+      <c r="D94" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95" t="s">
+        <v>159</v>
+      </c>
+      <c r="B95">
+        <v>89</v>
+      </c>
+      <c r="C95" t="s">
+        <v>189</v>
+      </c>
+      <c r="D95" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96" t="s">
+        <v>159</v>
+      </c>
+      <c r="B96">
+        <v>20</v>
+      </c>
+      <c r="C96" t="s">
+        <v>190</v>
+      </c>
+      <c r="D96" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97" t="s">
+        <v>192</v>
+      </c>
+      <c r="B97">
+        <v>35</v>
+      </c>
+      <c r="C97" t="s">
+        <v>193</v>
+      </c>
+      <c r="D97" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98" t="s">
+        <v>192</v>
+      </c>
+      <c r="B98">
+        <v>120</v>
+      </c>
+      <c r="C98" t="s">
+        <v>195</v>
+      </c>
+      <c r="D98" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99" t="s">
+        <v>192</v>
+      </c>
+      <c r="B99">
+        <v>25</v>
+      </c>
+      <c r="C99" t="s">
+        <v>197</v>
+      </c>
+      <c r="D99" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100" t="s">
+        <v>192</v>
+      </c>
+      <c r="B100">
+        <v>65</v>
+      </c>
+      <c r="C100" t="s">
+        <v>199</v>
+      </c>
+      <c r="D100" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101" t="s">
+        <v>192</v>
+      </c>
+      <c r="B101">
+        <v>45</v>
+      </c>
+      <c r="C101" t="s">
+        <v>201</v>
+      </c>
+      <c r="D101" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102" t="s">
+        <v>192</v>
+      </c>
+      <c r="B102">
+        <v>85</v>
+      </c>
+      <c r="C102" t="s">
+        <v>203</v>
+      </c>
+      <c r="D102" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
+      <c r="A103" t="s">
+        <v>192</v>
+      </c>
+      <c r="B103">
+        <v>25</v>
+      </c>
+      <c r="C103" t="s">
+        <v>205</v>
+      </c>
+      <c r="D103" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="A104" t="s">
+        <v>192</v>
+      </c>
+      <c r="B104">
+        <v>150</v>
+      </c>
+      <c r="C104" t="s">
+        <v>207</v>
+      </c>
+      <c r="D104" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
+      <c r="A105" t="s">
+        <v>192</v>
+      </c>
+      <c r="B105">
+        <v>35.5</v>
+      </c>
+      <c r="C105" t="s">
+        <v>209</v>
+      </c>
+      <c r="D105" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
+      <c r="A106" t="s">
+        <v>192</v>
+      </c>
+      <c r="B106">
+        <v>65</v>
+      </c>
+      <c r="C106" t="s">
+        <v>211</v>
+      </c>
+      <c r="D106" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
+      <c r="A107" t="s">
+        <v>192</v>
+      </c>
+      <c r="B107">
+        <v>45</v>
+      </c>
+      <c r="C107" t="s">
+        <v>213</v>
+      </c>
+      <c r="D107" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
+      <c r="A108" t="s">
+        <v>192</v>
+      </c>
+      <c r="B108">
+        <v>95</v>
+      </c>
+      <c r="C108" t="s">
+        <v>215</v>
+      </c>
+      <c r="D108" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4">
+      <c r="A109" t="s">
+        <v>192</v>
+      </c>
+      <c r="B109">
+        <v>25</v>
+      </c>
+      <c r="C109" t="s">
+        <v>217</v>
+      </c>
+      <c r="D109" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4">
+      <c r="A110" t="s">
+        <v>219</v>
+      </c>
+      <c r="B110">
+        <v>20</v>
+      </c>
+      <c r="C110" t="s">
+        <v>220</v>
+      </c>
+      <c r="D110" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4">
+      <c r="A111" t="s">
+        <v>222</v>
+      </c>
+      <c r="B111">
+        <v>100</v>
+      </c>
+      <c r="C111" t="s">
+        <v>223</v>
+      </c>
+      <c r="D111" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4">
+      <c r="A112" t="s">
+        <v>222</v>
+      </c>
+      <c r="B112">
+        <v>150</v>
+      </c>
+      <c r="C112" t="s">
+        <v>223</v>
+      </c>
+      <c r="D112" t="s">
+        <v>224</v>
       </c>
     </row>
   </sheetData>
